--- a/Docs/Snags.xlsx
+++ b/Docs/Snags.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\輸出\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\FlowerPage\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E03673-40B6-4667-8061-66A2A61EADDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FDDCA71-65DB-42E5-ABC4-16B02D7AAE76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>問題描述</t>
   </si>
@@ -293,12 +293,201 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>不知道如何讓網頁強制水平排列</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在父元素的CSS 設定 white-space: nowrap 子元素的class 設定 class="d-inline" (bootstrap)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>讓圖片輪播 邏輯卡住</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>作法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>將圖片分為兩組</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>兩組個別做動畫移動</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋轉角度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手機版 網頁右邊會有空白行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>每層</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">row </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>加上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>no-gutters</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>網站layout 製作兩份圖片文字，依照大小隱藏其中一份</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>padding子元素 子元素變小了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>子元素有設定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>width</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>或是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>height</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>為</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>時會跟隨父元素變小而變小</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="19">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -352,13 +541,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="3"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="細明體"/>
       <family val="2"/>
       <charset val="136"/>
@@ -388,6 +570,38 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -409,7 +623,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -428,12 +642,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -489,6 +704,50 @@
         <a:xfrm>
           <a:off x="5181600" y="600075"/>
           <a:ext cx="2572109" cy="190527"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1943371</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>295316</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="圖片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F32DDFB1-2D86-4CA5-8E7E-9461D092BBC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5181600" y="1200150"/>
+          <a:ext cx="1943371" cy="295316"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -704,7 +963,7 @@
   <dimension ref="A1:Z996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -751,7 +1010,7 @@
       <c r="Z1" s="3"/>
     </row>
     <row r="2" spans="1:26" ht="16.5">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -783,10 +1042,10 @@
       <c r="Z2" s="3"/>
     </row>
     <row r="3" spans="1:26">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="3"/>
@@ -844,8 +1103,13 @@
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
     </row>
-    <row r="5" spans="1:26" ht="15">
-      <c r="A5" s="12"/>
+    <row r="5" spans="1:26">
+      <c r="A5" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>9</v>
+      </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -871,9 +1135,13 @@
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
     </row>
-    <row r="6" spans="1:26" ht="15">
-      <c r="A6" s="12"/>
-      <c r="B6" s="14"/>
+    <row r="6" spans="1:26">
+      <c r="A6" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -899,9 +1167,11 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
     </row>
-    <row r="7" spans="1:26" ht="15">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13"/>
+    <row r="7" spans="1:26" ht="28.5" customHeight="1">
+      <c r="A7" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="12"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -927,7 +1197,13 @@
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
     </row>
-    <row r="8" spans="1:26" ht="15">
+    <row r="8" spans="1:26">
+      <c r="A8" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -953,7 +1229,10 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
     </row>
-    <row r="9" spans="1:26" ht="15">
+    <row r="9" spans="1:26">
+      <c r="A9" s="14" t="s">
+        <v>15</v>
+      </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -979,7 +1258,13 @@
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
     </row>
-    <row r="10" spans="1:26" ht="15">
+    <row r="10" spans="1:26">
+      <c r="A10" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>18</v>
+      </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -1006,6 +1291,9 @@
       <c r="Z10" s="3"/>
     </row>
     <row r="11" spans="1:26" ht="15">
+      <c r="B11" s="16" t="s">
+        <v>17</v>
+      </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>

--- a/Docs/Snags.xlsx
+++ b/Docs/Snags.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\FlowerPage\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FDDCA71-65DB-42E5-ABC4-16B02D7AAE76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967B4CB5-17BD-417D-9AAD-00CA37590106}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>問題描述</t>
   </si>
@@ -482,12 +482,229 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>fixed-top fixed-bottom 不能被viewport 影響</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>調整一個地方</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>另一個地方跟著改變</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>做網頁時</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>由上至下</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>一個部分的大部分尺寸正常後在往下做</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">iphone </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>圖片會變形</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>圖片的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">width height </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>同時按照圖片比例設定適當的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>vw</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>slick sider</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>超爆長</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>文字的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">slick </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>設定為</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">inline-block </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>圖片的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">slick </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>設定為</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>flex</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -602,6 +819,12 @@
       <family val="3"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -633,7 +856,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -649,6 +871,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -963,7 +1186,7 @@
   <dimension ref="A1:Z996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1010,10 +1233,10 @@
       <c r="Z1" s="3"/>
     </row>
     <row r="2" spans="1:26" ht="16.5">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="3"/>
@@ -1042,10 +1265,10 @@
       <c r="Z2" s="3"/>
     </row>
     <row r="3" spans="1:26">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="3"/>
@@ -1074,10 +1297,10 @@
       <c r="Z3" s="3"/>
     </row>
     <row r="4" spans="1:26">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="11"/>
+      <c r="B4" s="10"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -1104,10 +1327,10 @@
       <c r="Z4" s="3"/>
     </row>
     <row r="5" spans="1:26">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="3"/>
@@ -1136,10 +1359,10 @@
       <c r="Z5" s="3"/>
     </row>
     <row r="6" spans="1:26">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="3"/>
@@ -1168,10 +1391,10 @@
       <c r="Z6" s="3"/>
     </row>
     <row r="7" spans="1:26" ht="28.5" customHeight="1">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="12"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -1198,10 +1421,10 @@
       <c r="Z7" s="3"/>
     </row>
     <row r="8" spans="1:26">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="3"/>
@@ -1230,7 +1453,7 @@
       <c r="Z8" s="3"/>
     </row>
     <row r="9" spans="1:26">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="3"/>
@@ -1259,10 +1482,10 @@
       <c r="Z9" s="3"/>
     </row>
     <row r="10" spans="1:26">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="15" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="3"/>
@@ -1290,8 +1513,11 @@
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
     </row>
-    <row r="11" spans="1:26" ht="15">
-      <c r="B11" s="16" t="s">
+    <row r="11" spans="1:26">
+      <c r="A11" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="15" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="3"/>
@@ -1319,10 +1545,14 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
     </row>
-    <row r="12" spans="1:26" ht="15">
-      <c r="A12" s="10"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
+    <row r="12" spans="1:26" ht="16.5">
+      <c r="A12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="5"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -1347,9 +1577,13 @@
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
     </row>
-    <row r="13" spans="1:26" ht="15">
-      <c r="A13" s="3"/>
-      <c r="B13" s="1"/>
+    <row r="13" spans="1:26" ht="16.5">
+      <c r="A13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>23</v>
+      </c>
       <c r="C13" s="1"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -1375,9 +1609,13 @@
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
     </row>
-    <row r="14" spans="1:26" ht="15">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
+    <row r="14" spans="1:26" ht="16.5">
+      <c r="A14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>25</v>
+      </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -1405,7 +1643,7 @@
     </row>
     <row r="15" spans="1:26" ht="15">
       <c r="A15" s="3"/>
-      <c r="B15" s="7"/>
+      <c r="B15" s="6"/>
       <c r="C15" s="4"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -1461,8 +1699,8 @@
     </row>
     <row r="17" spans="1:26" ht="15">
       <c r="A17" s="3"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -1517,8 +1755,8 @@
     </row>
     <row r="19" spans="1:26" ht="16.5">
       <c r="A19" s="3"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="6"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -1545,8 +1783,8 @@
     </row>
     <row r="20" spans="1:26" ht="15">
       <c r="A20" s="3"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
